--- a/fhir/ig/urgencia/StructureDefinition-antecedente-dm2.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-antecedente-dm2.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Condition DM2</t>
+    <t>Condición DM2</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
